--- a/revise.xlsx
+++ b/revise.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ParikshitJ/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivanssingh82/Desktop/Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>http:www.spoj.comproblemsRAINBOW</t>
   </si>
@@ -117,16 +117,35 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,13 +168,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,89 +456,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="76.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>

--- a/revise.xlsx
+++ b/revise.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivanssingh82/Desktop/Practice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ParikshitJ/Desktop/Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>http:www.spoj.comproblemsRAINBOW</t>
   </si>
@@ -120,6 +120,30 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>a-data-structure-question</t>
+  </si>
+  <si>
+    <t>find-first-non-repeating-character-stream-characters</t>
+  </si>
+  <si>
+    <t>check-divisibility-binary-stream</t>
+  </si>
+  <si>
+    <t>select-a-random-number-from-stream-with-o1-space</t>
+  </si>
+  <si>
+    <t>connect-n-ropes-minimum-cost</t>
+  </si>
+  <si>
+    <t>minimum-sum-squares-characters-counts-given-string-removing-k-characters</t>
+  </si>
+  <si>
+    <t>median-of-stream-of-integers-running-integers</t>
+  </si>
+  <si>
+    <t>lru-cache-implementation</t>
   </si>
 </sst>
 </file>
@@ -454,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,6 +667,46 @@
         <v>24</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:B29">
     <sortCondition ref="A1"/>

--- a/revise.xlsx
+++ b/revise.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ParikshitJ/Desktop/Practice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivanssingh82/Desktop/Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>http:www.spoj.comproblemsRAINBOW</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve"> sum-of-all-substrings-of-a-string-representing-a-number</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Done</t>
@@ -480,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,7 +491,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -502,25 +499,31 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -528,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -536,7 +539,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -544,7 +547,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -552,20 +555,23 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -573,36 +579,48 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -613,98 +631,128 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B25" t="s">
-        <v>29</v>
+      <c r="B25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/revise.xlsx
+++ b/revise.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ParikshitJ/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ParikshitJ/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>http:www.spoj.comproblemsRAINBOW</t>
   </si>
@@ -117,13 +117,88 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DONE, Pretty straightforward</t>
+  </si>
+  <si>
+    <t>a-data-structure-question</t>
+  </si>
+  <si>
+    <t>find-first-non-repeating-character-stream-characters</t>
+  </si>
+  <si>
+    <t>check-divisibility-binary-stream</t>
+  </si>
+  <si>
+    <t>select-a-random-number-from-stream-with-o1-space</t>
+  </si>
+  <si>
+    <t>connect-n-ropes-minimum-cost</t>
+  </si>
+  <si>
+    <t>minimum-sum-squares-characters-counts-given-string-removing-k-characters</t>
+  </si>
+  <si>
+    <t>median-of-stream-of-integers-running-integers</t>
+  </si>
+  <si>
+    <t>lru-cache-implementation</t>
+  </si>
+  <si>
+    <t>Min Heap, Priority Queue</t>
+  </si>
+  <si>
+    <t>Theoritical,easy</t>
+  </si>
+  <si>
+    <t>Pretty straightforward</t>
+  </si>
+  <si>
+    <t>Not implemenetd</t>
+  </si>
+  <si>
+    <t>Theoritical, Not implemented</t>
+  </si>
+  <si>
+    <t>bitmasking-and-dynamic-programming-set-1-count-ways-to-assign-unique-cap-to-every-person</t>
+  </si>
+  <si>
+    <t>travelling-salesman-problem-set-1</t>
+  </si>
+  <si>
+    <t>bitmasking-dynamic-programming-set-2-tsp</t>
+  </si>
+  <si>
+    <t>http://www.spoj.com/problems/CLEANRBT</t>
+  </si>
+  <si>
+    <t>number-of-days-until-all-chocolates-become-unhealthy</t>
+  </si>
+  <si>
+    <t>largest-number-with-one-swap-allowed</t>
+  </si>
+  <si>
+    <t>dynamic-programming-set-31-optimal-strategy-for-a-game</t>
+  </si>
+  <si>
+    <t>dice-throw-problem</t>
+  </si>
+  <si>
+    <t>dynamic-programming-set-32-word-break-problem</t>
+  </si>
+  <si>
+    <t>count-possible-decodings-given-digit-sequence</t>
+  </si>
+  <si>
+    <t>sliding-window-maximum-maximum-of-all-subarrays-of-size-k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,13 +206,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,13 +252,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,13 +541,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="76.1640625" customWidth="1"/>
+    <col min="1" max="1" width="110" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -521,8 +634,11 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -531,7 +647,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -587,6 +703,128 @@
       <c r="A29" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A1:B29">

--- a/revise.xlsx
+++ b/revise.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ParikshitJ/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ParikshitJ/Desktop/Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>http:www.spoj.comproblemsRAINBOW</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Pretty straightforward</t>
   </si>
   <si>
-    <t>Not implemenetd</t>
-  </si>
-  <si>
     <t>Theoritical, Not implemented</t>
   </si>
   <si>
@@ -192,6 +189,21 @@
   </si>
   <si>
     <t>sliding-window-maximum-maximum-of-all-subarrays-of-size-k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented, straightforward, needs revision </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMplemented, TRICKY, needs revision </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limited Understanding </t>
+  </si>
+  <si>
+    <t>Straightforward</t>
+  </si>
+  <si>
+    <t>Easy</t>
   </si>
 </sst>
 </file>
@@ -543,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,7 +763,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -759,62 +771,77 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>51</v>
+      <c r="B45" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>54</v>
+      <c r="B48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">

--- a/revise.xlsx
+++ b/revise.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>http:www.spoj.comproblemsRAINBOW</t>
   </si>
@@ -141,13 +141,94 @@
   </si>
   <si>
     <t>lru-cache-implementation</t>
+  </si>
+  <si>
+    <t>bitmasking-and-dynamic-programming-set-1-count-ways-to-assign-unique-cap-to-every-person</t>
+  </si>
+  <si>
+    <t>travelling-salesman-problem-set-1</t>
+  </si>
+  <si>
+    <t>bitmasking-dynamic-programming-set-2-tsp</t>
+  </si>
+  <si>
+    <t>http://www.spoj.com/problems/CLEANRBT</t>
+  </si>
+  <si>
+    <t>number-of-days-until-all-chocolates-become-unhealthy</t>
+  </si>
+  <si>
+    <t>largest-number-with-one-swap-allowed</t>
+  </si>
+  <si>
+    <t>dynamic-programming-set-31-optimal-strategy-for-a-game</t>
+  </si>
+  <si>
+    <t>dice-throw-problem</t>
+  </si>
+  <si>
+    <t>dynamic-programming-set-32-word-break-problem</t>
+  </si>
+  <si>
+    <t>count-possible-decodings-given-digit-sequence</t>
+  </si>
+  <si>
+    <t>sliding-window-maximum-maximum-of-all-subarrays-of-size-k</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ternary-search-tree</t>
+  </si>
+  <si>
+    <t>expression-tree</t>
+  </si>
+  <si>
+    <t>succinct-encoding-of-binary-tree</t>
+  </si>
+  <si>
+    <t>serialize-deserialize-binary-tree</t>
+  </si>
+  <si>
+    <t>print-nodes-distance-k-leaf-node</t>
+  </si>
+  <si>
+    <t>minimum-positive-points-to-reach-destination</t>
+  </si>
+  <si>
+    <t>find-if-string-is-k-palindrome-or-not</t>
+  </si>
+  <si>
+    <t>temple-offerings</t>
+  </si>
+  <si>
+    <t>minimum-steps-to-delete-a-string-after-repeated-deletion-of-palindrome-substrings</t>
+  </si>
+  <si>
+    <t>ways-to-arrange-balls-such-that-adjacent-balls-are-of-different-types</t>
+  </si>
+  <si>
+    <t>ttps://sites.google.com/site/olimpous88/problems/spoj-6072-chocolate</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/JAN13/problems/LEALCO</t>
+  </si>
+  <si>
+    <t>http://www.spoj.com/problems/HIST2/</t>
+  </si>
+  <si>
+    <t>http://www.spoj.com/problems/GNY07H/</t>
+  </si>
+  <si>
+    <t>http://www.spoj.com/problems/M3TILE/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +248,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,8 +282,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -475,15 +564,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="76.1640625" customWidth="1"/>
+    <col min="1" max="1" width="79.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -626,6 +715,9 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -647,8 +739,8 @@
       <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -719,40 +811,233 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
